--- a/rider/weekly/2017_ 1.xlsx
+++ b/rider/weekly/2017_ 1.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>224.7</c:v>
+                  <c:v>229.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208</c:v>
+                  <c:v>208.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>224</c:v>
+                  <c:v>217.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>229.7</c:v>
+                  <c:v>231.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.45</c:v>
+                  <c:v>118.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.22</c:v>
+                  <c:v>103.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>224.7</v>
+        <v>229.3</v>
       </c>
       <c r="E2">
         <v>98.51000000000001</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>208</v>
+        <v>208.6</v>
       </c>
       <c r="E3">
         <v>98.67</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>207</v>
+        <v>193.5</v>
       </c>
       <c r="E4">
         <v>98.83</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>224</v>
+        <v>217.78</v>
       </c>
       <c r="E5">
         <v>98.98999999999999</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D6">
-        <v>229.7</v>
+        <v>231.3</v>
       </c>
       <c r="E6">
         <v>99.16</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>117.45</v>
+        <v>118.27</v>
       </c>
       <c r="E7">
         <v>99.31999999999999</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>105.22</v>
+        <v>103.33</v>
       </c>
       <c r="E8">
         <v>99.48</v>
